--- a/resultData/IP-камеры.xlsx
+++ b/resultData/IP-камеры.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clouds\Dropbox\programming\UTM\resultData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05594445-E13D-4FBB-BEA4-74DBBB407DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IP-камеры" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="IP-камеры" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="207">
   <si>
     <t>Встречаемость</t>
   </si>
@@ -641,20 +646,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -670,15 +674,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -966,116 +979,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s"/>
-      <c r="B1" t="s"/>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1">
         <v>1951.515789473684</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1">
         <v>16854</v>
       </c>
-      <c r="H1" t="n">
-        <v>37078.8</v>
-      </c>
-      <c r="I1" t="n">
-        <v>3433.222222222222</v>
-      </c>
-      <c r="J1" t="n">
+      <c r="H1">
+        <v>37078.800000000003</v>
+      </c>
+      <c r="I1">
+        <v>3433.2222222222222</v>
+      </c>
+      <c r="J1">
         <v>0</v>
       </c>
-      <c r="K1" t="n">
+      <c r="K1">
         <v>0</v>
       </c>
-      <c r="L1" t="n">
-        <v>1353.240875912409</v>
-      </c>
-      <c r="M1" t="n">
-        <v>19.66627771295216</v>
-      </c>
-      <c r="N1" t="n">
-        <v>54.96412689000889</v>
-      </c>
-      <c r="O1" t="n">
+      <c r="L1">
+        <v>1353.2408759124089</v>
+      </c>
+      <c r="M1">
+        <v>19.666277712952159</v>
+      </c>
+      <c r="N1">
+        <v>54.964126890008892</v>
+      </c>
+      <c r="O1">
         <v>13.87264292128105</v>
       </c>
-      <c r="P1" t="n">
-        <v>22.67261831967714</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>21.52490421455939</v>
-      </c>
-      <c r="R1" t="n">
-        <v>26484.85714285714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s"/>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
+      <c r="P1">
+        <v>22.672618319677142</v>
+      </c>
+      <c r="Q1">
+        <v>21.524904214559388</v>
+      </c>
+      <c r="R1">
+        <v>26484.857142857141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>24719.2</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>24719.200000000001</v>
+      </c>
+      <c r="G2">
         <v>2966.304000000001</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>3707.880000000001</v>
       </c>
-      <c r="I2" t="n">
-        <v>24719.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>37078.8</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="I2">
+        <v>24719.200000000001</v>
+      </c>
+      <c r="J2">
+        <v>37078.800000000003</v>
+      </c>
+      <c r="K2">
         <v>12359.6</v>
       </c>
-      <c r="L2" t="n">
-        <v>24719.2</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2">
+        <v>24719.200000000001</v>
+      </c>
+      <c r="M2">
         <v>2557.158620689655</v>
       </c>
-      <c r="N2" t="n">
-        <v>2247.2</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="N2">
+        <v>2247.1999999999998</v>
+      </c>
+      <c r="O2">
         <v>3089.900000000001</v>
       </c>
-      <c r="P2" t="n">
-        <v>4119.866666666667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2392.180645161291</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3531.314285714286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="P2">
+        <v>4119.8666666666668</v>
+      </c>
+      <c r="Q2">
+        <v>2392.1806451612911</v>
+      </c>
+      <c r="R2">
+        <v>3531.3142857142861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1131,8 +1132,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="n">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1724517.476069282</v>
       </c>
       <c r="B4" t="s">
@@ -1147,17 +1148,12 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
       <c r="M4" t="s">
         <v>26</v>
       </c>
@@ -1177,8 +1173,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="n">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1590254.479754406</v>
       </c>
       <c r="B5" t="s">
@@ -1193,17 +1189,12 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
       <c r="M5" t="s">
         <v>26</v>
       </c>
@@ -1223,9 +1214,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="n">
-        <v>1156818.653710628</v>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1156818.6537106279</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1239,30 +1230,21 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>43</v>
       </c>
       <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
       <c r="R6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="n">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1090280.112938083</v>
       </c>
       <c r="B7" t="s">
@@ -1277,17 +1259,12 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
       <c r="M7" t="s">
         <v>26</v>
       </c>
@@ -1307,9 +1284,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="n">
-        <v>1089076.948830574</v>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1089076.9488305741</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -1320,35 +1297,28 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>54</v>
       </c>
       <c r="H8" t="s">
         <v>55</v>
       </c>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
       <c r="K8" t="s">
         <v>56</v>
       </c>
-      <c r="L8" t="s"/>
       <c r="M8" t="s">
         <v>57</v>
       </c>
       <c r="N8" t="s">
         <v>58</v>
       </c>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
       <c r="Q8" t="s">
         <v>59</v>
       </c>
-      <c r="R8" t="s"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="n">
-        <v>1089076.948830574</v>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1089076.9488305741</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -1359,35 +1329,28 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>62</v>
       </c>
       <c r="H9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
       <c r="K9" t="s">
         <v>63</v>
       </c>
-      <c r="L9" t="s"/>
       <c r="M9" t="s">
         <v>57</v>
       </c>
       <c r="N9" t="s">
         <v>64</v>
       </c>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
       <c r="Q9" t="s">
         <v>65</v>
       </c>
-      <c r="R9" t="s"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="n">
-        <v>1077240.40864071</v>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1077240.4086407099</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -1401,17 +1364,12 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>68</v>
       </c>
       <c r="H10" t="s">
         <v>69</v>
       </c>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
       <c r="M10" t="s">
         <v>26</v>
       </c>
@@ -1431,9 +1389,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="n">
-        <v>908243.0782299399</v>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>908243.07822993991</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -1447,30 +1405,21 @@
       <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
       <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
       <c r="M11" t="s">
         <v>77</v>
       </c>
       <c r="N11" t="s">
         <v>78</v>
       </c>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
       <c r="Q11" t="s">
         <v>79</v>
       </c>
-      <c r="R11" t="s"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="n">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>895826.6866523691</v>
       </c>
       <c r="B12" t="s">
@@ -1485,17 +1434,12 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>24</v>
       </c>
       <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
       <c r="M12" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1459,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="n">
-        <v>889941.7150556468</v>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>889941.71505564684</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -1531,13 +1475,6 @@
       <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
       <c r="M13" t="s">
         <v>87</v>
       </c>
@@ -1547,7 +1484,6 @@
       <c r="O13" t="s">
         <v>89</v>
       </c>
-      <c r="P13" t="s"/>
       <c r="Q13" t="s">
         <v>90</v>
       </c>
@@ -1555,9 +1491,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="n">
-        <v>879169.7734686916</v>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>879169.77346869162</v>
       </c>
       <c r="B14" t="s">
         <v>92</v>
@@ -1571,17 +1507,12 @@
       <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" t="s"/>
       <c r="G14" t="s">
         <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
       <c r="M14" t="s">
         <v>26</v>
       </c>
@@ -1601,9 +1532,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="n">
-        <v>816591.2019594254</v>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>816591.20195942535</v>
       </c>
       <c r="B15" t="s">
         <v>96</v>
@@ -1614,19 +1545,15 @@
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>98</v>
       </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
       <c r="J15" t="s">
         <v>99</v>
       </c>
       <c r="K15" t="s">
         <v>100</v>
       </c>
-      <c r="L15" t="s"/>
       <c r="M15" t="s">
         <v>101</v>
       </c>
@@ -1636,15 +1563,13 @@
       <c r="O15" t="s">
         <v>49</v>
       </c>
-      <c r="P15" t="s"/>
       <c r="Q15" t="s">
         <v>103</v>
       </c>
-      <c r="R15" t="s"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="n">
-        <v>760115.5446407101</v>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>760115.54464071011</v>
       </c>
       <c r="B16" t="s">
         <v>104</v>
@@ -1658,17 +1583,12 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>106</v>
       </c>
       <c r="H16" t="s">
         <v>69</v>
       </c>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
       <c r="M16" t="s">
         <v>26</v>
       </c>
@@ -1688,9 +1608,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="n">
-        <v>738760.3897448434</v>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>738760.38974484336</v>
       </c>
       <c r="B17" t="s">
         <v>109</v>
@@ -1710,12 +1630,9 @@
       <c r="G17" t="s">
         <v>112</v>
       </c>
-      <c r="H17" t="s"/>
       <c r="I17" t="s">
         <v>113</v>
       </c>
-      <c r="J17" t="s"/>
-      <c r="K17" t="s"/>
       <c r="L17" t="s">
         <v>114</v>
       </c>
@@ -1725,16 +1642,13 @@
       <c r="N17" t="s">
         <v>115</v>
       </c>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
       <c r="R17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="n">
-        <v>738760.3897448434</v>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>738760.38974484336</v>
       </c>
       <c r="B18" t="s">
         <v>117</v>
@@ -1754,12 +1668,9 @@
       <c r="G18" t="s">
         <v>112</v>
       </c>
-      <c r="H18" t="s"/>
       <c r="I18" t="s">
         <v>119</v>
       </c>
-      <c r="J18" t="s"/>
-      <c r="K18" t="s"/>
       <c r="L18" t="s">
         <v>114</v>
       </c>
@@ -1769,16 +1680,13 @@
       <c r="N18" t="s">
         <v>120</v>
       </c>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
       <c r="R18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="n">
-        <v>731560.8363258345</v>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>731560.83632583451</v>
       </c>
       <c r="B19" t="s">
         <v>121</v>
@@ -1792,17 +1700,12 @@
       <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" t="s"/>
       <c r="G19" t="s">
         <v>106</v>
       </c>
       <c r="H19" t="s">
         <v>69</v>
       </c>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
       <c r="M19" t="s">
         <v>26</v>
       </c>
@@ -1822,9 +1725,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="n">
-        <v>731560.8363258345</v>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>731560.83632583451</v>
       </c>
       <c r="B20" t="s">
         <v>126</v>
@@ -1838,17 +1741,12 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>106</v>
       </c>
       <c r="H20" t="s">
         <v>69</v>
       </c>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
       <c r="M20" t="s">
         <v>26</v>
       </c>
@@ -1868,9 +1766,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="n">
-        <v>654407.2566407102</v>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>654407.25664071017</v>
       </c>
       <c r="B21" t="s">
         <v>130</v>
@@ -1884,17 +1782,12 @@
       <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="F21" t="s"/>
       <c r="G21" t="s">
         <v>34</v>
       </c>
       <c r="H21" t="s">
         <v>69</v>
       </c>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
       <c r="M21" t="s">
         <v>26</v>
       </c>
@@ -1914,9 +1807,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" t="n">
-        <v>654407.2566407102</v>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>654407.25664071017</v>
       </c>
       <c r="B22" t="s">
         <v>135</v>
@@ -1930,17 +1823,12 @@
       <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>34</v>
       </c>
       <c r="H22" t="s">
         <v>69</v>
       </c>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
       <c r="M22" t="s">
         <v>26</v>
       </c>
@@ -1960,9 +1848,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" t="n">
-        <v>528785.546897263</v>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>528785.54689726303</v>
       </c>
       <c r="B23" t="s">
         <v>140</v>
@@ -1976,17 +1864,12 @@
       <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s"/>
       <c r="G23" t="s">
         <v>34</v>
       </c>
       <c r="H23" t="s">
         <v>142</v>
       </c>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
       <c r="M23" t="s">
         <v>26</v>
       </c>
@@ -2006,9 +1889,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" t="n">
-        <v>528785.546897263</v>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>528785.54689726303</v>
       </c>
       <c r="B24" t="s">
         <v>146</v>
@@ -2022,17 +1905,12 @@
       <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" t="s"/>
       <c r="G24" t="s">
         <v>34</v>
       </c>
       <c r="H24" t="s">
         <v>142</v>
       </c>
-      <c r="I24" t="s"/>
-      <c r="J24" t="s"/>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
       <c r="M24" t="s">
         <v>26</v>
       </c>
@@ -2052,9 +1930,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" t="n">
-        <v>528785.546897263</v>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>528785.54689726303</v>
       </c>
       <c r="B25" t="s">
         <v>150</v>
@@ -2068,17 +1946,12 @@
       <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>34</v>
       </c>
       <c r="H25" t="s">
         <v>142</v>
       </c>
-      <c r="I25" t="s"/>
-      <c r="J25" t="s"/>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
       <c r="M25" t="s">
         <v>26</v>
       </c>
@@ -2098,9 +1971,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="n">
-        <v>528785.546897263</v>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>528785.54689726303</v>
       </c>
       <c r="B26" t="s">
         <v>154</v>
@@ -2114,17 +1987,12 @@
       <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="F26" t="s"/>
       <c r="G26" t="s">
         <v>34</v>
       </c>
       <c r="H26" t="s">
         <v>142</v>
       </c>
-      <c r="I26" t="s"/>
-      <c r="J26" t="s"/>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
       <c r="M26" t="s">
         <v>26</v>
       </c>
@@ -2144,9 +2012,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" t="n">
-        <v>480903.2540883076</v>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>480903.25408830761</v>
       </c>
       <c r="B27" t="s">
         <v>158</v>
@@ -2157,33 +2025,25 @@
       <c r="E27" t="s">
         <v>23</v>
       </c>
-      <c r="F27" t="s"/>
       <c r="G27" t="s">
         <v>160</v>
       </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s"/>
-      <c r="J27" t="s"/>
       <c r="K27" t="s">
         <v>161</v>
       </c>
-      <c r="L27" t="s"/>
-      <c r="M27" t="s"/>
       <c r="N27" t="s">
         <v>162</v>
       </c>
       <c r="O27" t="s">
         <v>163</v>
       </c>
-      <c r="P27" t="s"/>
       <c r="Q27" t="s">
         <v>164</v>
       </c>
-      <c r="R27" t="s"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" t="n">
-        <v>480903.2540883076</v>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>480903.25408830761</v>
       </c>
       <c r="B28" t="s">
         <v>165</v>
@@ -2194,33 +2054,25 @@
       <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="F28" t="s"/>
       <c r="G28" t="s">
         <v>160</v>
       </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s"/>
-      <c r="J28" t="s"/>
       <c r="K28" t="s">
         <v>167</v>
       </c>
-      <c r="L28" t="s"/>
-      <c r="M28" t="s"/>
       <c r="N28" t="s">
         <v>168</v>
       </c>
       <c r="O28" t="s">
         <v>169</v>
       </c>
-      <c r="P28" t="s"/>
       <c r="Q28" t="s">
         <v>164</v>
       </c>
-      <c r="R28" t="s"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" t="n">
-        <v>445755.5197544058</v>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>445755.51975440577</v>
       </c>
       <c r="B29" t="s">
         <v>170</v>
@@ -2234,17 +2086,12 @@
       <c r="E29" t="s">
         <v>23</v>
       </c>
-      <c r="F29" t="s"/>
       <c r="G29" t="s">
         <v>34</v>
       </c>
       <c r="H29" t="s">
         <v>69</v>
       </c>
-      <c r="I29" t="s"/>
-      <c r="J29" t="s"/>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
       <c r="M29" t="s">
         <v>26</v>
       </c>
@@ -2264,9 +2111,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" t="n">
-        <v>360041.4543289861</v>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>360041.45432898612</v>
       </c>
       <c r="B30" t="s">
         <v>174</v>
@@ -2280,13 +2127,6 @@
       <c r="E30" t="s">
         <v>23</v>
       </c>
-      <c r="F30" t="s"/>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s"/>
-      <c r="J30" t="s"/>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
       <c r="M30" t="s">
         <v>176</v>
       </c>
@@ -2302,11 +2142,10 @@
       <c r="Q30" t="s">
         <v>180</v>
       </c>
-      <c r="R30" t="s"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" t="n">
-        <v>218231.5156970288</v>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>218231.51569702881</v>
       </c>
       <c r="B31" t="s">
         <v>181</v>
@@ -2320,28 +2159,18 @@
       <c r="E31" t="s">
         <v>23</v>
       </c>
-      <c r="F31" t="s"/>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s"/>
-      <c r="J31" t="s"/>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
       <c r="M31" t="s">
         <v>183</v>
       </c>
       <c r="N31" t="s">
         <v>184</v>
       </c>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
       <c r="Q31" t="s">
         <v>185</v>
       </c>
-      <c r="R31" t="s"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" t="n">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>181773.8039353505</v>
       </c>
       <c r="B32" t="s">
@@ -2353,29 +2182,19 @@
       <c r="E32" t="s">
         <v>23</v>
       </c>
-      <c r="F32" t="s"/>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s"/>
-      <c r="J32" t="s"/>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
-      <c r="M32" t="s"/>
       <c r="N32" t="s">
         <v>188</v>
       </c>
       <c r="O32" t="s">
         <v>138</v>
       </c>
-      <c r="P32" t="s"/>
       <c r="Q32" t="s">
         <v>189</v>
       </c>
-      <c r="R32" t="s"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" t="n">
-        <v>146080.4185417558</v>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>146080.41854175579</v>
       </c>
       <c r="B33" t="s">
         <v>190</v>
@@ -2389,27 +2208,16 @@
       <c r="E33" t="s">
         <v>23</v>
       </c>
-      <c r="F33" t="s"/>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s"/>
-      <c r="J33" t="s"/>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
-      <c r="M33" t="s"/>
       <c r="N33" t="s">
         <v>192</v>
       </c>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
       <c r="Q33" t="s">
         <v>193</v>
       </c>
-      <c r="R33" t="s"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" t="n">
-        <v>145820.3492157533</v>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>145820.34921575329</v>
       </c>
       <c r="B34" t="s">
         <v>194</v>
@@ -2423,26 +2231,15 @@
       <c r="E34" t="s">
         <v>23</v>
       </c>
-      <c r="F34" t="s"/>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s"/>
-      <c r="J34" t="s"/>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
       <c r="M34" t="s">
         <v>196</v>
       </c>
       <c r="N34" t="s">
         <v>197</v>
       </c>
-      <c r="O34" t="s"/>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" t="n">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>109245.7925115156</v>
       </c>
       <c r="B35" t="s">
@@ -2454,27 +2251,16 @@
       <c r="E35" t="s">
         <v>23</v>
       </c>
-      <c r="F35" t="s"/>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s"/>
-      <c r="J35" t="s"/>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
-      <c r="M35" t="s"/>
       <c r="N35" t="s">
         <v>78</v>
       </c>
-      <c r="O35" t="s"/>
-      <c r="P35" t="s"/>
       <c r="Q35" t="s">
         <v>200</v>
       </c>
-      <c r="R35" t="s"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" t="n">
-        <v>96461.53219969982</v>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>96461.532199699825</v>
       </c>
       <c r="B36" t="s">
         <v>201</v>
@@ -2485,27 +2271,16 @@
       <c r="E36" t="s">
         <v>23</v>
       </c>
-      <c r="F36" t="s"/>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s"/>
-      <c r="J36" t="s"/>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
       <c r="M36" t="s">
         <v>77</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
       <c r="Q36" t="s">
         <v>203</v>
       </c>
-      <c r="R36" t="s"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" t="n">
-        <v>96461.53219969982</v>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>96461.532199699825</v>
       </c>
       <c r="B37" t="s">
         <v>204</v>
@@ -2516,25 +2291,26 @@
       <c r="E37" t="s">
         <v>23</v>
       </c>
-      <c r="F37" t="s"/>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s"/>
-      <c r="J37" t="s"/>
-      <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
       <c r="M37" t="s">
         <v>77</v>
       </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="s"/>
       <c r="Q37" t="s">
         <v>206</v>
       </c>
-      <c r="R37" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <conditionalFormatting sqref="F1:R2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>